--- a/biology/Botanique/Macrolobium_bifolium/Macrolobium_bifolium.xlsx
+++ b/biology/Botanique/Macrolobium_bifolium/Macrolobium_bifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrolobium bifolium est une espèce d'arbre amazonienne appartenant à la famille des Fabaceae.
-Il est connu en Guyane sous les noms de Wapa marécage, Wapa sec, Wapa de rivière, Wapa-dilo, Wapa-larivyé, wapa-marikaj, wapa-sek (Créole), Ouatampana, Watampana, Watapan (Nenge tongo), Wap-purubumna (Palikur), Atapa, Vouapa  (Kali'na), Takulu wɨla (Teko) ɨpewi (Wayãpi), Alawata pana, Watapana (Wayana), Fava-de-tambaqui, Ingarana-vermelho, ipê-do-igapó (Portugais)[3],[4].
-Ailleurs, au Guyana, on l'appelle Water Wallaba[5], au Suriname Waterbijhout (Néerlandais du Suriname), Watrabirihoedoe (Sranan tongo), Watrapa (Saramaka), Sarébébé (Arawak), Attaapa (Karib)[6], et au Venezuela on l'appelle Basabasarú Daucabera (Warao), Parueyek (Arekuna), Mora rebalsera, Arepito, Arepito rebalsero[7].
-Au Brésil, on le nomme Araparirana, Cedrinho, óleo-comumbá, Ipê-da-várzea, Iperana[8],[9].
+Il est connu en Guyane sous les noms de Wapa marécage, Wapa sec, Wapa de rivière, Wapa-dilo, Wapa-larivyé, wapa-marikaj, wapa-sek (Créole), Ouatampana, Watampana, Watapan (Nenge tongo), Wap-purubumna (Palikur), Atapa, Vouapa  (Kali'na), Takulu wɨla (Teko) ɨpewi (Wayãpi), Alawata pana, Watapana (Wayana), Fava-de-tambaqui, Ingarana-vermelho, ipê-do-igapó (Portugais),.
+Ailleurs, au Guyana, on l'appelle Water Wallaba, au Suriname Waterbijhout (Néerlandais du Suriname), Watrabirihoedoe (Sranan tongo), Watrapa (Saramaka), Sarébébé (Arawak), Attaapa (Karib), et au Venezuela on l'appelle Basabasarú Daucabera (Warao), Parueyek (Arekuna), Mora rebalsera, Arepito, Arepito rebalsero.
+Au Brésil, on le nomme Araparirana, Cedrinho, óleo-comumbá, Ipê-da-várzea, Iperana,.
 </t>
         </is>
       </c>
@@ -514,15 +526,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Macrolobium bifolium est un arbre haut de 2 à 20 m[7]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Macrolobium bifolium est un arbre haut de 2 à 20 m
 Les feuilles comportent 2 follioles coriaces, glabres, subsessiles de forme oblique ovale, oblongue obtuse ou aiguë-acuminée, mesurant 8-18 x 4-7 cm.
 Les fleurs sont organisées en grappes tomenteuses, avec de très petites bractées petites rapidement décidues.
 Les pétales sont blanc ou rose. 
 Les étamines sont longuement exsertes, avec le filet rouge.
 L'ovaire est tomenteux.
-Les fruits sont des gousses obliques ou ovales, oblongues, pubescentes, avec la suture supérieure dilatée, et mesurant 8-12 x 5-7 cm. Ils contiennent 1-2 graines sub-orbiculaires[10],[11]
+Les fruits sont des gousses obliques ou ovales, oblongues, pubescentes, avec la suture supérieure dilatée, et mesurant 8-12 x 5-7 cm. Ils contiennent 1-2 graines sub-orbiculaires,
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Macrolobium bifolium du nord du Brésil (Amapá, Pará) au Venezuela (Delta Amacuro, Bolívar, Amazonas, Apure), en passant par le Guyana, le Suriname, et la Guyane[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Macrolobium bifolium du nord du Brésil (Amapá, Pará) au Venezuela (Delta Amacuro, Bolívar, Amazonas, Apure), en passant par le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -582,19 +598,21 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Macrolobium bifolium est une espèce de succession secondaire tardive, à feuillage caduque, sciaphile à héliophile, caractéristique et exclusive des forêts ripicoles et des plaines inondables (ex : Varzea), où elle est assez fréquente mais avec une dispersion plus ou moins discontinue. Elle se rencontre préférentiellement sur  les berges des forêts secondaires, sur des sols très humides ou marécageux, avec une bonne fertilité. On la trouve également sur les plages de sable blanc des rives des rivières amazoniennes, à 0-1 200 m d'altitude[7], où elle est utilisée pour faire de l'ombre. Il produit un grand nombre de graines viables, qui sont généralement disséminées par l'eau des rivières[8],[9].
-Les graines sont consommées sur terre par la biche rouge et dans l'eau par les Serrasalmidae (Myleus spp.)[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Macrolobium bifolium est une espèce de succession secondaire tardive, à feuillage caduque, sciaphile à héliophile, caractéristique et exclusive des forêts ripicoles et des plaines inondables (ex : Varzea), où elle est assez fréquente mais avec une dispersion plus ou moins discontinue. Elle se rencontre préférentiellement sur  les berges des forêts secondaires, sur des sols très humides ou marécageux, avec une bonne fertilité. On la trouve également sur les plages de sable blanc des rives des rivières amazoniennes, à 0-1 200 m d'altitude, où elle est utilisée pour faire de l'ombre. Il produit un grand nombre de graines viables, qui sont généralement disséminées par l'eau des rivières,.
+Les graines sont consommées sur terre par la biche rouge et dans l'eau par les Serrasalmidae (Myleus spp.).
 Plusieurs aspects ont été étudiés : 
-La morphologie de ses graines et fruits[13],
-sa croissance selon le climat[14],
-sa place dans les écosystèmes ripicoles au Guyana[15] ou dans le Pará[16],
-l'adaptation fonctionnelle du xylème selon les conditions hydroclimatiques et pédologiques[17],
-la dissémination des ses graines hydrochores[18],
-sa taxonomie[19],
-sa nodulation[20],[21],
-les propriété physiques de son écorce et de son bois[22],</t>
+La morphologie de ses graines et fruits,
+sa croissance selon le climat,
+sa place dans les écosystèmes ripicoles au Guyana ou dans le Pará,
+l'adaptation fonctionnelle du xylème selon les conditions hydroclimatiques et pédologiques,
+la dissémination des ses graines hydrochores,
+sa taxonomie,
+sa nodulation
+les propriété physiques de son écorce et de son bois,</t>
         </is>
       </c>
     </row>
@@ -622,12 +640,14 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son bois de cœur imputrescible est recommandé pour faire des poteaux de carbet, des solives et des pilotis. Il produit aussi un excellent bois de feu, car il est capable de brûler dans toutes les conditions hygrométriques[23]-
-En Guyane, on récolte dans ses vieux troncs et poteau, les larves comestibles de coléoptère (Dynastinae)[12].
-Le bois de Macrolobium bifolium est utilisé localement dans la construction[7], pour la menuiserie et les manches d'outils, ainsi que comme bois de chauffe pour produire du charbon de bois. L'écorce est réputée avoir des propriétés médicinales. L'arbre est recommandé pour la composition de reboisements hétérogènes pour le rétablissement de la végétation dans les zones dégradées[8].
-Ses extrait ont été testé pour ses propriété insecticides dans la lutte anti-moustique[24].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bois de cœur imputrescible est recommandé pour faire des poteaux de carbet, des solives et des pilotis. Il produit aussi un excellent bois de feu, car il est capable de brûler dans toutes les conditions hygrométriques-
+En Guyane, on récolte dans ses vieux troncs et poteau, les larves comestibles de coléoptère (Dynastinae).
+Le bois de Macrolobium bifolium est utilisé localement dans la construction, pour la menuiserie et les manches d'outils, ainsi que comme bois de chauffe pour produire du charbon de bois. L'écorce est réputée avoir des propriétés médicinales. L'arbre est recommandé pour la composition de reboisements hétérogènes pour le rétablissement de la végétation dans les zones dégradées.
+Ses extrait ont été testé pour ses propriété insecticides dans la lutte anti-moustique.
 </t>
         </is>
       </c>
@@ -656,9 +676,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant[25] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 1. VOUAPA bifolia. (Tabula 7.) 
 Arbor trunco ſexaginta-pedali, ad ſummitatem ramoſiſſimo ; ramis &amp; ramulis latè hùc &amp; illùc ſparſis. Folia alterna, pinnata ; foliolis duobus eodem petiolo adnexis, ovato-oblongis, acutis, glabris, integerrimis, uno latere latioribus. Stipulæ binæ, exiguæ, deciduæ, ad baſim petioli communis. Flores corymboſi, axillares &amp; terminales.
 Florebat Novembri. Fructum ferebat Januario.
